--- a/proses/Report Data Mahasiswa.xlsx
+++ b/proses/Report Data Mahasiswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -47,21 +47,6 @@
     <t>Singojuruh</t>
   </si>
   <si>
-    <t>Ramadhan</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>rama@gmail.com</t>
-  </si>
-  <si>
-    <t>Rogojampi</t>
-  </si>
-  <si>
-    <t>Rio</t>
-  </si>
-  <si>
     <t>Ahmad Sandi</t>
   </si>
   <si>
@@ -71,7 +56,7 @@
     <t>Kecamatan Licin</t>
   </si>
   <si>
-    <t>Saiful Rosid</t>
+    <t>M. Saiful Rosid</t>
   </si>
   <si>
     <t>saiful@gmail.com</t>
@@ -80,7 +65,7 @@
     <t>Banyuwangi</t>
   </si>
   <si>
-    <t>Salsabilla</t>
+    <t>Maidatus Salsabilla</t>
   </si>
   <si>
     <t>salsa@gmail.com</t>
@@ -89,7 +74,16 @@
     <t>Songgon</t>
   </si>
   <si>
-    <t>Leoninda</t>
+    <t>Aidika Akbar Assufa</t>
+  </si>
+  <si>
+    <t>dika@gmail.com</t>
+  </si>
+  <si>
+    <t>Srono</t>
+  </si>
+  <si>
+    <t>Leoninda Putri M</t>
   </si>
   <si>
     <t>leo@gmail.com</t>
@@ -98,13 +92,13 @@
     <t>Pasuruan</t>
   </si>
   <si>
-    <t>Aidika</t>
-  </si>
-  <si>
-    <t>dika@gmail.com</t>
-  </si>
-  <si>
-    <t>Srono</t>
+    <t>Yuniar Friska A</t>
+  </si>
+  <si>
+    <t>friska@gmail.com</t>
+  </si>
+  <si>
+    <t>Ketapang</t>
   </si>
 </sst>
 </file>
@@ -460,10 +454,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:F9"/>
+      <selection activeCell="A1" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -516,16 +510,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>362155401089</v>
+        <v>362155401060</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -533,19 +527,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>362155401067</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>362151781</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -553,19 +547,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>362155401060</v>
+        <v>362155401083</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -573,19 +567,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>362155401067</v>
+        <v>362155401066</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -593,19 +587,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>362155401083</v>
+        <v>362155401088</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -613,39 +607,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
-        <v>362155401088</v>
+        <v>362155401091</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1">
-        <v>362155401066</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
